--- a/Rankings_RCP45_Year2026_revised.xlsx
+++ b/Rankings_RCP45_Year2026_revised.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcrocker\Documents\GitHub\ADRIA_repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249D2B1C-0E16-4531-A62E-3E0D90F97FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCADA8E-6FED-4EB2-9BBA-C47BE80530EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="732" windowWidth="19872" windowHeight="11628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,16 +84,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00E5B40B-934F-4360-8191-F7F86552CA8D}" name="Table1" displayName="Table1" ref="A1:D67" totalsRowShown="0">
-  <autoFilter ref="A1:D67" xr:uid="{00E5B40B-934F-4360-8191-F7F86552CA8D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D2A653D6-0707-44FA-AF52-132C09DADC4C}" name="Table1" displayName="Table1" ref="A1:D67" totalsRowShown="0">
+  <autoFilter ref="A1:D67" xr:uid="{D2A653D6-0707-44FA-AF52-132C09DADC4C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D67">
     <sortCondition ref="B1:B67"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9FF46277-7638-49D8-A941-AB3D288DACCD}" name="sites_after_filtering"/>
-    <tableColumn id="2" xr3:uid="{CAF9621E-D26A-45E5-8CAD-133B11B0D1BC}" name="siteranks_alg1"/>
-    <tableColumn id="3" xr3:uid="{83459D8C-F714-4A07-A969-546BDDB93B61}" name="siteranks_alg2"/>
-    <tableColumn id="4" xr3:uid="{26351AC0-6904-49ED-BE2F-3B1101D2ED1D}" name="siteranks_alg3"/>
+    <tableColumn id="1" xr3:uid="{5DB821EF-66A7-47E9-9490-BC5AA6B74418}" name="sites_after_filtering"/>
+    <tableColumn id="2" xr3:uid="{E62E1EC3-AAF4-4C13-8200-D31179D05340}" name="siteranks_alg1"/>
+    <tableColumn id="3" xr3:uid="{616B9BA1-B9C1-41EF-AE7A-59483A6103BB}" name="siteranks_alg2"/>
+    <tableColumn id="4" xr3:uid="{9A64FB3F-B507-4CC6-8171-3E56215A5F17}" name="siteranks_alg3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -398,8 +398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -525,13 +525,13 @@
         <v>221</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -539,13 +539,13 @@
         <v>203</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -553,7 +553,7 @@
         <v>229</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -567,7 +567,7 @@
         <v>155</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>4.76</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -581,7 +581,7 @@
         <v>216</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>6.48</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -595,55 +595,55 @@
         <v>171</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="C14">
         <v>7</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>263</v>
+        <v>166</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>8.32</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>56</v>
+        <v>263</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>15.74</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>166</v>
+        <v>56</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>10.24</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -651,13 +651,13 @@
         <v>254</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>11.06</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>10.76</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>8.74</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -665,13 +665,13 @@
         <v>218</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>12.42</v>
       </c>
       <c r="C19">
         <v>12</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -679,7 +679,7 @@
         <v>222</v>
       </c>
       <c r="B20">
-        <v>13</v>
+        <v>12.98</v>
       </c>
       <c r="C20">
         <v>13</v>
@@ -690,100 +690,100 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>54</v>
+        <v>204</v>
       </c>
       <c r="B21">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>15.7</v>
       </c>
       <c r="D21">
-        <v>33</v>
+        <v>13.16</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B22">
-        <v>15</v>
+        <v>15.62</v>
       </c>
       <c r="C22">
-        <v>17</v>
+        <v>14.92</v>
       </c>
       <c r="D22">
-        <v>29</v>
+        <v>35.58</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="B23">
-        <v>16</v>
+        <v>16.46</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>17.04</v>
       </c>
       <c r="D23">
-        <v>28</v>
+        <v>28.88</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="B24">
-        <v>17</v>
+        <v>17.7</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>19.14</v>
       </c>
       <c r="D24">
-        <v>38</v>
+        <v>11.54</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="B25">
-        <v>18</v>
+        <v>18.239999999999998</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>14.38</v>
       </c>
       <c r="D25">
-        <v>14</v>
+        <v>23.24</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="B26">
-        <v>19</v>
+        <v>19.420000000000002</v>
       </c>
       <c r="C26">
-        <v>19</v>
+        <v>18.04</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>40.479999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B27">
-        <v>20</v>
+        <v>19.7</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>19.78</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>28.62</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -791,111 +791,111 @@
         <v>22</v>
       </c>
       <c r="B28">
-        <v>21</v>
+        <v>20.82</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>21.08</v>
       </c>
       <c r="D28">
-        <v>21</v>
+        <v>21.86</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="B29">
-        <v>22</v>
+        <v>21.1</v>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>21.92</v>
       </c>
       <c r="D29">
-        <v>26</v>
+        <v>10.34</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>256</v>
+        <v>119</v>
       </c>
       <c r="B30">
-        <v>23</v>
+        <v>22.66</v>
       </c>
       <c r="C30">
-        <v>15</v>
+        <v>23.04</v>
       </c>
       <c r="D30">
-        <v>25</v>
+        <v>26.06</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="B31">
-        <v>24</v>
+        <v>24.62</v>
       </c>
       <c r="C31">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D31">
-        <v>23</v>
+        <v>19.12</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="B32">
-        <v>25</v>
+        <v>25.04</v>
       </c>
       <c r="C32">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32">
-        <v>19</v>
+        <v>23.64</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B33">
-        <v>26</v>
+        <v>26.62</v>
       </c>
       <c r="C33">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D33">
-        <v>17</v>
+        <v>24.64</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="B34">
-        <v>27</v>
+        <v>27.66</v>
       </c>
       <c r="C34">
-        <v>29</v>
+        <v>28.36</v>
       </c>
       <c r="D34">
-        <v>34</v>
+        <v>17.18</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="B35">
-        <v>28</v>
+        <v>27.92</v>
       </c>
       <c r="C35">
-        <v>30</v>
+        <v>29.72</v>
       </c>
       <c r="D35">
-        <v>24</v>
+        <v>36.380000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -903,10 +903,10 @@
         <v>299</v>
       </c>
       <c r="B36">
-        <v>29</v>
+        <v>29.38</v>
       </c>
       <c r="C36">
-        <v>33</v>
+        <v>33.880000000000003</v>
       </c>
       <c r="D36">
         <v>18</v>
@@ -917,83 +917,83 @@
         <v>286</v>
       </c>
       <c r="B37">
-        <v>30</v>
+        <v>29.98</v>
       </c>
       <c r="C37">
-        <v>35</v>
+        <v>34.92</v>
       </c>
       <c r="D37">
-        <v>20</v>
+        <v>20.14</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="B38">
-        <v>31</v>
+        <v>31.38</v>
       </c>
       <c r="C38">
-        <v>26</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="D38">
-        <v>31</v>
+        <v>21.36</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="B39">
-        <v>32</v>
+        <v>31.82</v>
       </c>
       <c r="C39">
-        <v>32</v>
+        <v>26.6</v>
       </c>
       <c r="D39">
-        <v>30</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B40">
-        <v>33</v>
+        <v>33.380000000000003</v>
       </c>
       <c r="C40">
-        <v>27</v>
+        <v>31.82</v>
       </c>
       <c r="D40">
-        <v>35</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B41">
-        <v>34</v>
+        <v>34.14</v>
       </c>
       <c r="C41">
-        <v>38</v>
+        <v>26.92</v>
       </c>
       <c r="D41">
-        <v>27</v>
+        <v>38.14</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B42">
-        <v>35</v>
+        <v>34.72</v>
       </c>
       <c r="C42">
-        <v>34</v>
+        <v>39.1</v>
       </c>
       <c r="D42">
-        <v>22</v>
+        <v>27.74</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1001,181 +1001,181 @@
         <v>39</v>
       </c>
       <c r="B43">
-        <v>36</v>
+        <v>36.46</v>
       </c>
       <c r="C43">
-        <v>31</v>
+        <v>30.82</v>
       </c>
       <c r="D43">
-        <v>49</v>
+        <v>49.88</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>61</v>
+        <v>199</v>
       </c>
       <c r="B44">
-        <v>37</v>
+        <v>37.58</v>
       </c>
       <c r="C44">
-        <v>36</v>
+        <v>41.2</v>
       </c>
       <c r="D44">
-        <v>36</v>
+        <v>33.96</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>134</v>
+        <v>239</v>
       </c>
       <c r="B45">
-        <v>38</v>
+        <v>39.04</v>
       </c>
       <c r="C45">
-        <v>37</v>
+        <v>37.92</v>
       </c>
       <c r="D45">
-        <v>50</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>185</v>
+        <v>61</v>
       </c>
       <c r="B46">
-        <v>39</v>
+        <v>39.26</v>
       </c>
       <c r="C46">
-        <v>40</v>
+        <v>36.36</v>
       </c>
       <c r="D46">
-        <v>48</v>
+        <v>39.020000000000003</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>247</v>
+        <v>134</v>
       </c>
       <c r="B47">
-        <v>40</v>
+        <v>41.1</v>
       </c>
       <c r="C47">
-        <v>48</v>
+        <v>36.64</v>
       </c>
       <c r="D47">
-        <v>32</v>
+        <v>51.22</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="B48">
-        <v>41</v>
+        <v>42.02</v>
       </c>
       <c r="C48">
         <v>42</v>
       </c>
       <c r="D48">
-        <v>39</v>
+        <v>48.82</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B49">
-        <v>42</v>
+        <v>42.82</v>
       </c>
       <c r="C49">
-        <v>39</v>
+        <v>48.2</v>
       </c>
       <c r="D49">
-        <v>37</v>
+        <v>32.92</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B50">
-        <v>43</v>
+        <v>42.98</v>
       </c>
       <c r="C50">
-        <v>41</v>
+        <v>43.88</v>
       </c>
       <c r="D50">
-        <v>46</v>
+        <v>40.36</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="B51">
-        <v>44</v>
+        <v>44.66</v>
       </c>
       <c r="C51">
-        <v>49</v>
+        <v>42.46</v>
       </c>
       <c r="D51">
-        <v>43</v>
+        <v>46.3</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>85</v>
+        <v>196</v>
       </c>
       <c r="B52">
-        <v>45</v>
+        <v>45.72</v>
       </c>
       <c r="C52">
-        <v>45</v>
+        <v>48.38</v>
       </c>
       <c r="D52">
-        <v>53</v>
+        <v>43.14</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>198</v>
+        <v>85</v>
       </c>
       <c r="B53">
-        <v>46</v>
+        <v>47.44</v>
       </c>
       <c r="C53">
-        <v>47</v>
+        <v>45.24</v>
       </c>
       <c r="D53">
-        <v>45</v>
+        <v>53.24</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>87</v>
+        <v>198</v>
       </c>
       <c r="B54">
-        <v>47</v>
+        <v>47.58</v>
       </c>
       <c r="C54">
-        <v>46</v>
+        <v>47.08</v>
       </c>
       <c r="D54">
-        <v>54</v>
+        <v>45.12</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>199</v>
+        <v>87</v>
       </c>
       <c r="B55">
-        <v>49</v>
+        <v>48.3</v>
       </c>
       <c r="C55">
-        <v>44</v>
+        <v>46.06</v>
       </c>
       <c r="D55">
-        <v>42</v>
+        <v>53.56</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1183,13 +1183,13 @@
         <v>252</v>
       </c>
       <c r="B56">
-        <v>50</v>
+        <v>49.46</v>
       </c>
       <c r="C56">
-        <v>50</v>
+        <v>50.28</v>
       </c>
       <c r="D56">
-        <v>40</v>
+        <v>41.14</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1197,97 +1197,97 @@
         <v>202</v>
       </c>
       <c r="B57">
-        <v>51</v>
+        <v>50.52</v>
       </c>
       <c r="C57">
-        <v>51</v>
+        <v>50.82</v>
       </c>
       <c r="D57">
-        <v>44</v>
+        <v>43.44</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="B58">
-        <v>52</v>
+        <v>52.56</v>
       </c>
       <c r="C58">
-        <v>53</v>
+        <v>51.9</v>
       </c>
       <c r="D58">
-        <v>47</v>
+        <v>55.98</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="B59">
-        <v>53</v>
+        <v>53.16</v>
       </c>
       <c r="C59">
-        <v>52</v>
+        <v>53.78</v>
       </c>
       <c r="D59">
-        <v>56</v>
+        <v>46.96</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>220</v>
+        <v>49</v>
       </c>
       <c r="B60">
-        <v>54</v>
+        <v>54.02</v>
       </c>
       <c r="C60">
-        <v>56</v>
+        <v>54.32</v>
       </c>
       <c r="D60">
-        <v>55</v>
+        <v>48.36</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="B61">
-        <v>56</v>
+        <v>54.84</v>
       </c>
       <c r="C61">
-        <v>55</v>
+        <v>56.46</v>
       </c>
       <c r="D61">
-        <v>58</v>
+        <v>54.94</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>157</v>
+        <v>241</v>
       </c>
       <c r="B62">
-        <v>57</v>
+        <v>57.1</v>
       </c>
       <c r="C62">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D62">
-        <v>51</v>
+        <v>58.16</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="B63">
-        <v>58</v>
+        <v>57.58</v>
       </c>
       <c r="C63">
-        <v>58</v>
+        <v>57.8</v>
       </c>
       <c r="D63">
-        <v>52</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1295,13 +1295,13 @@
         <v>133</v>
       </c>
       <c r="B64">
-        <v>59</v>
+        <v>59.4</v>
       </c>
       <c r="C64">
-        <v>59</v>
+        <v>59.6</v>
       </c>
       <c r="D64">
-        <v>59</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1309,13 +1309,13 @@
         <v>75</v>
       </c>
       <c r="B65">
-        <v>60</v>
+        <v>59.9</v>
       </c>
       <c r="C65">
-        <v>60</v>
+        <v>59.96</v>
       </c>
       <c r="D65">
-        <v>60</v>
+        <v>59.98</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1323,13 +1323,13 @@
         <v>250</v>
       </c>
       <c r="B66">
-        <v>61</v>
+        <v>60.78</v>
       </c>
       <c r="C66">
-        <v>61</v>
+        <v>60.74</v>
       </c>
       <c r="D66">
-        <v>61</v>
+        <v>60.82</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1337,13 +1337,13 @@
         <v>236</v>
       </c>
       <c r="B67">
-        <v>62</v>
+        <v>61.36</v>
       </c>
       <c r="C67">
-        <v>62</v>
+        <v>61.34</v>
       </c>
       <c r="D67">
-        <v>62</v>
+        <v>61.38</v>
       </c>
     </row>
   </sheetData>
